--- a/Indikatoren/Übersicht Indikatoren.xlsx
+++ b/Indikatoren/Übersicht Indikatoren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\OneDrive\Uni FS18\Open Data\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{239933F0-33A7-476F-934C-09BAE39A8068}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{CBB258BF-2D34-437C-95F6-BCF9B0316ABE}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{239933F0-33A7-476F-934C-09BAE39A8068}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A17BE36F-CF60-433F-A2B8-577A708CE3B2}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{DF2AB83D-8895-4A1A-86AB-63EBA350CF37}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
   <si>
     <t>Indikator</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Pie Chart</t>
   </si>
   <si>
-    <t>Altersgruppen</t>
-  </si>
-  <si>
     <t>Pie Chart/Histogramm?</t>
   </si>
   <si>
@@ -123,30 +120,110 @@
     <t>2006-2016 (netto)</t>
   </si>
   <si>
-    <t>2010/2012 --&gt; File noch anpassen</t>
-  </si>
-  <si>
-    <t>2004-2017 --&gt; File anpassen?</t>
+    <t>ab 2008 als Open Data</t>
+  </si>
+  <si>
+    <t>ab 2015 als Open Data</t>
+  </si>
+  <si>
+    <t>Open Data</t>
+  </si>
+  <si>
+    <t>verfügbar auf statistik.tg.ch</t>
+  </si>
+  <si>
+    <t>ab 2015 aus Open Data -&gt; File von 2005-2013?</t>
+  </si>
+  <si>
+    <t>Steuerfuss: Open Data, Steuerkraft?</t>
+  </si>
+  <si>
+    <t>Ausländeranteil  2005-2013</t>
+  </si>
+  <si>
+    <t>Verfügbarkeit als Open Data?</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">2000-2014 und </t>
+      <t xml:space="preserve">2000-2014 </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <sz val="8"/>
+        <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>2015 (provisorisch? Gleiche Berechnung? --&gt; File noch anpassen)</t>
+      <t>(separates File von 2015 müsste angepasst werden)</t>
     </r>
   </si>
   <si>
-    <t>2008, 2012, 2016 → Daniela fragen für 2004 &amp; 2000</t>
-  </si>
-  <si>
-    <t>2015-2017 --&gt; Daniela fragen für weitere</t>
+    <t>Anzahl Beschäftigte nach Sektoren von 2000-2014</t>
+  </si>
+  <si>
+    <t>2004-2017 -&gt; File anpassen?</t>
+  </si>
+  <si>
+    <t>2008, 2012, 2016 -&gt; Daniela fragen für 2004 &amp; 2000</t>
+  </si>
+  <si>
+    <t>2015-2017 -&gt; Daniela fragen für Daten vor 2015</t>
+  </si>
+  <si>
+    <t>2010/2012 -&gt; File noch anpassen</t>
+  </si>
+  <si>
+    <t>Altersstruktur Gemeinden</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ab 2015 als Open Data -&gt; von wo ist File von Dropbox? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(wurde von anderer Gruppe hochgeladen)</t>
+    </r>
+  </si>
+  <si>
+    <t>und allenfalls Konfession vor 2015 und Parteienstärke 2004 &amp; 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela fragen nach Verfügbarkeit als Open Data von: </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Daniela fragen für</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Konfession vor 2015, Parteienstärke 2004 &amp; 2000</t>
+    </r>
+  </si>
+  <si>
+    <t>Steuerkraft 2002-2017</t>
+  </si>
+  <si>
+    <t>Bevölkerungsdichte 2005-2017</t>
+  </si>
+  <si>
+    <t>Altersstruktur Gemeinden 2004-2017 (File von Dropbox/Daten vor 2015)</t>
   </si>
 </sst>
 </file>
@@ -162,33 +239,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +275,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,20 +297,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -542,20 +629,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A4C4CB-8923-4C9C-84F0-72E51DE23452}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
-    <col min="3" max="3" width="45.36328125" customWidth="1"/>
+    <col min="1" max="1" width="28.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
+    <col min="4" max="4" width="60.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,196 +653,274 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="C9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="3">
+        <v>2018</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="2">
+      <c r="B19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2" t="s">
-        <v>30</v>
+      <c r="D20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D21" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Indikatoren/Übersicht Indikatoren.xlsx
+++ b/Indikatoren/Übersicht Indikatoren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\OneDrive\Uni FS18\Open Data\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{239933F0-33A7-476F-934C-09BAE39A8068}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{A17BE36F-CF60-433F-A2B8-577A708CE3B2}"/>
+  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{239933F0-33A7-476F-934C-09BAE39A8068}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{36A39D99-CCDB-4BF1-AEC9-1FE3C9B49E07}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{DF2AB83D-8895-4A1A-86AB-63EBA350CF37}"/>
   </bookViews>
@@ -135,42 +135,19 @@
     <t>ab 2015 aus Open Data -&gt; File von 2005-2013?</t>
   </si>
   <si>
-    <t>Steuerfuss: Open Data, Steuerkraft?</t>
-  </si>
-  <si>
     <t>Ausländeranteil  2005-2013</t>
   </si>
   <si>
     <t>Verfügbarkeit als Open Data?</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">2000-2014 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(separates File von 2015 müsste angepasst werden)</t>
-    </r>
-  </si>
-  <si>
     <t>Anzahl Beschäftigte nach Sektoren von 2000-2014</t>
   </si>
   <si>
-    <t>2004-2017 -&gt; File anpassen?</t>
-  </si>
-  <si>
     <t>2008, 2012, 2016 -&gt; Daniela fragen für 2004 &amp; 2000</t>
   </si>
   <si>
     <t>2015-2017 -&gt; Daniela fragen für Daten vor 2015</t>
-  </si>
-  <si>
-    <t>2010/2012 -&gt; File noch anpassen</t>
   </si>
   <si>
     <t>Altersstruktur Gemeinden</t>
@@ -224,6 +201,18 @@
   </si>
   <si>
     <t>Altersstruktur Gemeinden 2004-2017 (File von Dropbox/Daten vor 2015)</t>
+  </si>
+  <si>
+    <t>2000, 2005, 2008, 2011, 2014 (in einem File)</t>
+  </si>
+  <si>
+    <t>2010/2012 (Mittelwerte aus Stichproben 2010-2012)</t>
+  </si>
+  <si>
+    <t>Steuerfuss: verfügbar als Open Data, Steuerkraft?</t>
+  </si>
+  <si>
+    <t>2004-2017 (in einem File)</t>
   </si>
 </sst>
 </file>
@@ -265,7 +254,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +264,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -310,11 +293,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -632,7 +615,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>31</v>
@@ -673,16 +656,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>46</v>
+      <c r="C3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -709,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>32</v>
@@ -727,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -768,8 +751,8 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>44</v>
+      <c r="C9" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>34</v>
@@ -783,11 +766,11 @@
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>38</v>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -802,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -818,7 +801,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -840,8 +823,8 @@
       <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>48</v>
+      <c r="D15" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -856,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -871,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -886,7 +869,7 @@
         <v>2018</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -901,7 +884,7 @@
         <v>2018</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -914,13 +897,13 @@
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Indikatoren/Übersicht Indikatoren.xlsx
+++ b/Indikatoren/Übersicht Indikatoren.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\OneDrive\Uni FS18\Open Data\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="13_ncr:1_{239933F0-33A7-476F-934C-09BAE39A8068}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{36A39D99-CCDB-4BF1-AEC9-1FE3C9B49E07}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{239933F0-33A7-476F-934C-09BAE39A8068}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{CB8B6C11-6EEC-4112-AC87-1C1DD047BC54}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{DF2AB83D-8895-4A1A-86AB-63EBA350CF37}"/>
   </bookViews>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>verfügbar auf statistik.tg.ch</t>
-  </si>
-  <si>
-    <t>ab 2015 aus Open Data -&gt; File von 2005-2013?</t>
   </si>
   <si>
     <t>Ausländeranteil  2005-2013</t>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>2004-2017 (in einem File)</t>
+  </si>
+  <si>
+    <t>ab 2015 von statistik.tg.ch -&gt; File von 2005-2013?</t>
   </si>
 </sst>
 </file>
@@ -615,7 +615,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -647,7 +647,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>31</v>
@@ -656,16 +656,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -680,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -692,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>32</v>
@@ -710,7 +710,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -752,7 +752,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>34</v>
@@ -767,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -785,7 +785,7 @@
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -801,7 +801,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -824,7 +824,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E15" s="2"/>
     </row>
@@ -839,7 +839,7 @@
         <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -854,7 +854,7 @@
         <v>24</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2"/>
     </row>
@@ -869,7 +869,7 @@
         <v>2018</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2"/>
     </row>
@@ -884,7 +884,7 @@
         <v>2018</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -897,13 +897,13 @@
         <v>29</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
